--- a/test/files/borders.xlsx
+++ b/test/files/borders.xlsx
@@ -54,8 +54,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFFFAA00"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
       <top style="thick">
         <color rgb="FFFF0000"/>
       </top>

--- a/test/files/borders.xlsx
+++ b/test/files/borders.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
@@ -77,7 +77,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="center" vertical="top"/>
+      <alignment textRotation="0" horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
